--- a/Create Database.xlsx
+++ b/Create Database.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\private\Practice_code\hackathon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이재윤\Desktop\hackathon_project-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EC131E-024C-409E-B616-CC11A7BF9559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{BAAD5386-AA5D-4A59-9F86-234F07EB8587}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,13 +67,53 @@
   </si>
   <si>
     <t>똑볶이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kcal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sugar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat_fat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tra_fat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colestrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>natrium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,12 +139,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -114,9 +168,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,80 +491,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0EEAAD-1A90-46CD-A2C8-8508A8FA8A5D}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="1" max="16" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>8801062521906</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1400</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>245</v>
+      </c>
+      <c r="I2" s="1">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>8801117752804</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2400</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>8801019604034</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1100</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
